--- a/bolt_stiffness.xlsx
+++ b/bolt_stiffness.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Biomech\Dropbox (MIT)\Personal\Classes\2.720\Mathcad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B034DF21-F1C0-4E15-9409-AD256AE59C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5973F185-A7D1-4159-9359-26CD7F362A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="900" windowWidth="28800" windowHeight="15460" activeTab="1" xr2:uid="{AB006D65-B89A-457F-B707-811E39590ABE}"/>
+    <workbookView xWindow="3130" yWindow="1350" windowWidth="28800" windowHeight="15460" activeTab="2" xr2:uid="{AB006D65-B89A-457F-B707-811E39590ABE}"/>
   </bookViews>
   <sheets>
     <sheet name="Threaded" sheetId="1" r:id="rId1"/>
@@ -676,7 +676,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:C16" si="1">B9*0.0254</f>
+        <f t="shared" ref="C9:C14" si="1">B9*0.0254</f>
         <v>1.397E-2</v>
       </c>
     </row>
@@ -839,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC70DB3-2A3F-444F-995F-F786C2AEDBC9}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1112,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B00001B-6455-47C6-ADCD-B71212D004B0}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1221,7 +1221,7 @@
         <v>0.5</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C9" si="0">B7*0.0254</f>
+        <f t="shared" ref="C7:C8" si="0">B7*0.0254</f>
         <v>1.2699999999999999E-2</v>
       </c>
     </row>
@@ -1362,20 +1362,20 @@
         <v>1562.0601386284243</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <f>1/(1/C16+1/C22)</f>
         <v>850824726.99306488</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <f>C26*10^-6</f>
         <v>850.82472699306481</v>
       </c>
